--- a/spreadsheet/macrofree/aks_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ko.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AKS Windows 워크로드에 필요한 경우 호스트 프로세스 컨테이너를 사용할 수 있습니다.</t>
+          <t>AKS Windows 워크로드에 필요한 경우 HostProcess 컨테이너를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1196,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용</t>
+          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용Use KEDA if running event-driven workloads</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1283,12 +1248,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>코드형 인프라</t>
+          <t>코드형 인프라(Infrastructure as Code)</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기</t>
+          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기Use automation through ARM/TF to create your Azure resources</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1380,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
+          <t>Azure Traffic Manager 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1426,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역에서 지원되는 경우 가용성 영역 사용</t>
+          <t>Azure 지역에서 지원되는 가용성 영역 사용Use Availability Zones if they are supported in your Azure region</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1518,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>포드 및 배포 정의에서 중단 예산 사용</t>
+          <t>포드 및 배포 정의에서 Disruption Budgets 사용Use Disruption Budgets in your pod and deployment definitions</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1564,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다.</t>
+          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1656,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용을 할당합니다.</t>
+          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용을 할당합니다</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1702,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 노드 풀 스냅샷 크기 조정</t>
+          <t>필요한 경우 NodePool 스냅샷 확장</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1794,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
+          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU를 사용합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1840,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>개발/테스트 클러스터를 실행하는 경우 노드 풀 시작/중지 사용</t>
+          <t>개발/테스트 클러스터를 실행하는 경우 NodePool 시작/중지를 사용합니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1886,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>쿠버네티스용 Azure 정책을 사용하여 클러스터 규정 준수 보장</t>
+          <t>Azure Policy for Kubernetes를 사용하여 클러스터 규정 준수 보장</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1932,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
+          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 애플리케이션 분리Separate applications from the control plane with user/system nodepools</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1978,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>시스템 노드 풀에 taint를 추가하여 전용으로 만들기</t>
+          <t>시스템 노드 풀에 오염을 추가하여 전용으로 만듭니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2023,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>이미지에 ACR과 같은 개인 레지스트리 사용</t>
+          <t>이미지에 개인 레지스트리(예: ACR)를 사용합니다</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2068,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>이미지에서 취약성 검사</t>
+          <t>이미지에서 취약점 검사</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2113,7 +2078,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure 보안 센터를 사용하여 보안 상태 취약성 검색</t>
+          <t>Azure Security Center를 사용하여 보안 태세 취약성 검색</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2158,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 FIPS 구성</t>
+          <t>필요한 경우 FIPS를 구성합니다.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2249,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure 키 자격 증명 모음에 비밀 저장</t>
+          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀 저장Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2341,7 +2306,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 키 관리 서비스 etcd 암호화 추가</t>
+          <t>필요한 경우 키 관리 서비스 etcd 암호화를 추가합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2387,7 +2352,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
+          <t>필요한 경우 AKS용 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2433,7 +2398,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>컨테이너용 Defender 사용 고려</t>
+          <t>컨테이너용 Defender를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2525,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>AAD와 인증 통합(관리되는 통합 사용)</t>
+          <t>AAD와 인증 통합(관리형 통합 사용)Integrate authentication with AAD (using the managed integration)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2571,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>관리자 kubeconfig에 대한 액세스 제한 (자격 증명 가져 오기 --admin)</t>
+          <t>관리자 kubeconfig에 대한 액세스 제한(get-credentials --admin)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2617,7 +2582,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>AAD RBAC와 권한 부여 통합</t>
+          <t>AAD RBAC와 권한 부여 통합Integrate authorization with AAD RBAC</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2663,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>네임스페이스를 사용하여 쿠버네티스에서 RBAC 권한 제한</t>
+          <t>Kubernetes에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2938,7 +2903,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">윈도우 AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
+          <t xml:space="preserve">Windows AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2983,7 +2948,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>더 세밀하게 제어하려면 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
+          <t>보다 세밀한 제어를 위해 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3028,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요.</t>
+          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3074,7 +3039,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>AKS 애플리케이션 라우팅 추가 기능을 사용하지 마세요.</t>
+          <t>AKS 애플리케이션 라우팅 추가 기능 사용 안 함</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3120,7 +3085,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Windows 워크로드의 경우 가속화된 네트워킹 사용</t>
+          <t>Windows 워크로드의 경우 가속화된 네트워킹을 사용합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3211,7 +3176,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드 풀에 대해 다른 서브넷을 사용하는 것이 좋습니다.</t>
+          <t>Azure CNI를 사용하는 경우 NodePools에 다른 서브넷을 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3257,7 +3222,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트(기본 설정) 또는 가상 네트워크 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
+          <t>프라이빗 엔드포인트(기본 설정) 또는 Virtual Network 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3302,7 +3267,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다.</t>
+          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3342,12 +3307,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인을 선택합니다(Azure CNI 권장).</t>
+          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인 선택(Azure CNI 권장)</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3387,12 +3352,12 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다.</t>
+          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3432,7 +3397,7 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
@@ -3477,17 +3442,17 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>개인 IP 부하 분산 장치 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다.</t>
+          <t>개인 IP LoadBalancer 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 네트워크 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
+          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리며, 잠재적으로 Pod에 대한 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3526,12 +3491,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>아이팜</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성 제한).</t>
+          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성을 제한할 예정임).</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3576,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 자신의 CNI 플러그인을 추가하십시오.</t>
+          <t>필요한 경우 자체 CNI 플러그인을 추가하십시오.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3621,7 +3586,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
+          <t>필요한 경우 AKS에서 노드당 공용 IP를 구성합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3667,7 +3632,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다.</t>
+          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3713,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azue NAT 게이트웨이를 아웃바운드 유형으로 사용하여 송신 트래픽 크기 조정</t>
+          <t>송신 트래픽 크기 조정을 위해 Azure NAT Gateway를 outboundType으로 사용</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3759,7 +3724,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
+          <t>Azure CNI IP 고갈을 방지하기 위해 IP의 동적 할당을 사용합니다</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3804,7 +3769,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>보안 요구 사항에 따라 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
+          <t>보안 요구 사항에서 요구하는 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링Filter egress traffic with AzFW/NVA if your security requirements required it</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3850,7 +3815,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다.</t>
+          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3896,7 +3861,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>요구 사항에서 요구하는 경우 프라이빗 클러스터 사용</t>
+          <t>요구 사항에 따라 필요한 경우 프라이빗 클러스터 사용Use private clusters if your requirements required it</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3942,7 +3907,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 옥양목 네트워크 정책을 사용할 수 있습니다. </t>
+          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 Calico 네트워크 정책을 사용할 수 있습니다. </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3988,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책 옵션 사용(Calico/Azure)</t>
+          <t>Kubernetes 네트워크 정책 옵션 사용(Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4080,7 +4045,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>웹 워크로드(UI 또는 API)에 WAF 사용</t>
+          <t>웹 워크로드(UI 또는 API)에 WAF 사용Use a WAF for web workloads (UI or APIs)</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4126,7 +4091,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>AKS 가상 네트워크에서 DDoS 표준 사용</t>
+          <t>AKS 가상 네트워크에서 DDoS 표준 사용Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4172,7 +4137,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 회사 HTTP 프록시 추가</t>
+          <t>필요한 경우 회사 HTTP 프록시를 추가합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4218,7 +4183,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시 사용 고려</t>
+          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4264,7 +4229,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 컨테이너 인사이트 참조)</t>
+          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 Container Insights 참조)</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4310,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure 어드바이저에서 클러스터에 대한 권장 사항을 정기적으로 확인하세요.</t>
+          <t>Azure Advisor에서 클러스터에 대한 권장 사항을 정기적으로 확인합니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4356,7 +4321,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>vscode+kubeadvisor와 같은 지능형 텍스트 편집기로 YAML 매니페스트를 개발하세요.</t>
+          <t>vscode+kubeadvisor와 같은 지능형 텍스트 편집기로 YAML 매니페스트를 개발합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4402,7 +4367,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>AKS 자동 인증서 회전 사용</t>
+          <t>AKS 자동 인증서 회전 사용Enable AKS auto-certificate rotation</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4448,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>kubernetes 버전을 주기적으로(예: 분기별로) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
+          <t>kubernetes 버전을 주기적으로(예: 분기별) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4494,7 +4459,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured 사용</t>
+          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured를 사용합니다</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4540,7 +4505,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>클러스터 노드 이미지를 정기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다.</t>
+          <t>클러스터 노드 이미지를 주기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4586,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 또는 클러스터 구성을 여러 클러스터에 배포하기 위해 gitops 고려</t>
+          <t>gitops를 고려하여 애플리케이션 또는 클러스터 구성을 여러 클러스터에 배포합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4632,7 +4597,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 클러스터에서 AKS 명령 호출 사용을 고려하세요.</t>
+          <t>프라이빗 클러스터에서 AKS 명령 호출을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4678,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>계획된 이벤트의 경우 노드 자동 드레이닝 사용을 고려하십시오.</t>
+          <t>계획된 이벤트의 경우 노드 자동 드레이닝을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4724,7 +4689,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경하지 않도록 자체 관리 관행을 개발합니다.</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경을 수행하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4816,7 +4781,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>YAML 매니페스트에서 더 이상 사용되지 않는 쿠버네티스 API를 사용하지 마세요.</t>
+          <t>YAML 매니페스트에서 더 이상 사용되지 않는 Kubernetes API를 사용하지 마십시오</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4862,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>윈도우 노드 오염</t>
+          <t>Windows 노드 오염</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4908,7 +4873,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
+          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지Keep windows containers patch level in sync with host patch level</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4954,12 +4919,12 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>마스터 로그(API 로그라고도 함)를 Azure 모니터 또는 기본 설정 로그 관리 솔루션으로 보냅니다.</t>
+          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 선호하는 로그 관리 솔루션으로 보내기</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>클러스터 수준에서 진단 설정을 통해</t>
+          <t>클러스터 수준에서 진단 설정을 통해Via Diagnostic Settings at the cluster level</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
@@ -5096,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 메트릭 모니터링</t>
+          <t>Container Insights(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 지표 모니터링</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5142,7 +5107,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>컨테이너 인사이트(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
+          <t>Container Insights(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그 저장 및 분석</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5234,7 +5199,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 사용된 Pod IP의 %를 모니터링합니다.</t>
+          <t>Azure CNI를 사용하는 경우 노드당 사용되는 Pod IP의 %를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5285,7 +5250,7 @@
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예기치 않은 동작이 발생할 수 있으며 일반적으로 노드가 NotReady로 선언됩니다.</t>
+          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되는 경우 예측할 수 없는 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언됩니다</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5376,7 +5341,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>AKS 클러스터에 대한 리소스 상태 알림 구독</t>
+          <t>AKS 클러스터에 대한 리소스 상태 알림 구독Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5422,7 +5387,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>포드 사양에서 요청 및 제한 구성</t>
+          <t>Pod 사양에서 요청 및 제한 구성</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5468,7 +5433,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>네임스페이스에 대한 리소스 할당량 적용</t>
+          <t>네임스페이스에 대한 리소스 할당량 적용Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5514,7 +5479,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>구독에 노드 풀을 확장하기에 충분한 할당량이 있는지 확인</t>
+          <t>구독에 노드 풀을 스케일 아웃하기에 충분한 할당량이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5652,7 +5617,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 수평 포드 자동 크기 조정기 사용</t>
+          <t>필요한 경우 Horizontal Pod Autoscaler 사용</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5698,12 +5663,12 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려하십시오.</t>
+          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려합니다</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>노드가 클수록 휘발성 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다.</t>
+          <t>더 큰 노드는 더 높은 성능과 임시 디스크 및 가속화된 네트워킹과 같은 기능을 제공하지만 폭발 반경을 늘리고 크기 조정 세분성을 감소시킵니다</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -5748,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>확장성에 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다.</t>
+          <t>확장성을 위해 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5773,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5794,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>AKS 자동화를 위한 이벤트 그리드 이벤트를 구독하는 것이 좋습니다.</t>
+          <t>AKS 자동화를 위한 EventGrid 이벤트를 구독하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5819,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5864,7 +5829,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5885,7 +5850,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 노드에 대한 Azure 전용 호스트를 사용하는 것이 좋습니다.</t>
+          <t>필요한 경우 AKS 노드에 Azure Dedicated Host를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -5910,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5977,7 +5942,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 엄청난 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 대해 높은 IOPS 및 더 큰 OS 디스크를 사용합니다.</t>
+          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대규모 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 높은 IOPS 및 더 큰 OS 디스크를 사용합니다</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6023,7 +5988,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>고성능 스토리지 옵션의 경우 AKS에서 울트라 디스크 사용</t>
+          <t>하이퍼 성능 스토리지 옵션의 경우 AKS에서 Ultra Disks를 사용합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6068,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>클러스터에 상태를 유지하지 말고 외부에 데이터를 저장합니다 (AzStorage, AzSQL, Cosmos 등).</t>
+          <t>클러스터에서 상태를 유지하지 말고 외부(AzStorage, AzSQL, Cosmos 등)에 데이터를 저장합니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6113,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 고려하십시오.</t>
+          <t>AzFiles Standard를 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6158,7 +6123,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 볼륨 바인딩 모드:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다.</t>
+          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 VolumeBindingMode:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 포함하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -8953,20 +8918,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -8978,123 +9041,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9200,7 +9148,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>이 검사는 아직 검토되지 않았습니다.</t>
+          <t>이 검사는 아직 검토되지 않았습니다</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -9227,7 +9175,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>이 검사와 연결된 작업 항목이 있습니다.</t>
+          <t>이 검사와 연관된 작업 항목이 있습니다</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -9254,7 +9202,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>이 검사가 확인되었으며 연결된 추가 작업 항목이 없습니다.</t>
+          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -9276,7 +9224,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에서 필요하지 않음</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9288,7 +9236,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 없음</t>
+          <t>해당 사항 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9298,7 +9246,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>현재 디자인에는 적용되지 않음</t>
+          <t>현재 설계에는 적용되지 않습니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ko.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>확장성을 위해 필요한 경우 5000개 이상의 노드를 추가하는 것이 좋습니다</t>
+          <t>확장성을 위해 5,000개 이상의 노드가 필요한 경우 추가 AKS 클러스터를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ko.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>ARM/TF를 통한 자동화를 사용하여 Azure 리소스 만들기Use automation through ARM/TF to create your Azure resources</t>
+          <t>ARM/TF를 통해 자동화를 사용하여 Azure 리소스 만들기</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>정기적으로 DR 테스트 예약 및 수행</t>
+          <t>DR 테스트를 정기적으로 예약하고 수행합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 전역 부하 분산 장치로 사용</t>
+          <t>Azure Traffic Manager 또는 Azure Front Door를 지역 장애 조치(failover)를 위한 글로벌 부하 분산 장치로 사용</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역에서 지원되는 가용성 영역 사용Use Availability Zones if they are supported in your Azure region</t>
+          <t>Azure 지역에서 지원되는 경우 가용성 영역 사용Use Availability Zones if they are supported in your Azure region</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>포드 및 배포 정의에서 Disruption Budgets 사용Use Disruption Budgets in your pod and deployment definitions</t>
+          <t>Pod 및 배포 정의에서 중단 예산 사용Use Disruption Budgets in your pod and deployment definitions</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 지점 목표)와 같은 비기능적 요구 사항을 정의합니다.</t>
+          <t>SLA, RTO(복구 시간 목표) 및 RPO(복구 시점 목표)와 같은 비기능적 요구 사항을 정의합니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용을 할당합니다</t>
+          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용 할당</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 NodePool 스냅샷 확장</t>
+          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
+          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1738,7 +1738,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU를 사용합니다.</t>
+          <t>개발/테스트 클러스터를 실행하는 경우 NodePool 시작/중지를 사용합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1795,23 +1795,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>비용 거버넌스</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>개발/테스트 클러스터를 실행하는 경우 NodePool 시작/중지를 사용합니다.</t>
+          <t>Kubernetes용 Azure Policy를 사용하여 클러스터 규정 준수 보장</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy for Kubernetes를 사용하여 클러스터 규정 준수 보장</t>
+          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1868,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 애플리케이션 분리Separate applications from the control plane with user/system nodepools</t>
+          <t>시스템 nodepool에 taint를 추가하여 전용으로 만듭니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>시스템 노드 풀에 오염을 추가하여 전용으로 만듭니다.</t>
+          <t>이미지에 개인 레지스트리(예: ACR) 사용</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1960,14 +1960,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://learn.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>이미지에 개인 레지스트리(예: ACR)를 사용합니다</t>
+          <t>이미지에서 취약성 검사</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2005,14 +2005,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>이미지에서 취약점 검사</t>
+          <t>Azure Security Center를 사용하여 보안 태세 취약성 검색</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2057,7 +2057,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2078,13 +2078,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure Security Center를 사용하여 보안 태세 취약성 검색</t>
+          <t>필요한 경우 FIPS를 구성합니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2095,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 FIPS를 구성합니다.</t>
+          <t>앱 분리 요구 사항 정의(namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2140,14 +2140,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2163,18 +2163,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
+          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀 저장</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2193,7 +2193,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀 저장Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
+          <t>클러스터에 서비스 주체를 사용하는 경우 주기적으로(예: 분기별) 자격 증명을 새로 고칩니다</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2260,13 +2260,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>클러스터에 서비스 주체를 사용하는 경우 자격 증명을 주기적으로(예: 분기별) 새로 고칩니다.</t>
+          <t>필요한 경우 키 관리 서비스 etcd 암호화를 추가합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2285,7 +2285,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 키 관리 서비스 etcd 암호화를 추가합니다.</t>
+          <t>필요한 경우 AKS용 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2323,7 +2323,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2331,7 +2331,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2352,13 +2352,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS용 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
+          <t>컨테이너용 Defender 사용 고려</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2377,7 +2377,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2388,23 +2388,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>컨테이너용 Defender를 사용하는 것이 좋습니다</t>
+          <t>서비스 주체 대신 관리 ID 사용</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2423,7 +2423,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2444,13 +2444,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>서비스 주체 대신 관리 ID 사용</t>
+          <t>AAD와 인증 통합(관리형 통합 사용)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2461,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2469,7 +2469,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>AAD와 인증 통합(관리형 통합 사용)Integrate authentication with AAD (using the managed integration)</t>
+          <t>관리자 kubeconfig에 대한 액세스 제한(get-credentials --admin)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>관리자 kubeconfig에 대한 액세스 제한(get-credentials --admin)</t>
+          <t>AAD RBAC와 권한 부여 통합</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2561,7 +2561,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2582,13 +2582,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>AAD RBAC와 권한 부여 통합Integrate authorization with AAD RBAC</t>
+          <t>쿠버네티스에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,7 +2599,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2607,7 +2607,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
+          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2645,7 +2645,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2653,7 +2653,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
+          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2699,7 +2699,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
+          <t>AKS 로컬 계정 사용 안 함</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2737,7 +2737,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2745,7 +2745,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2766,13 +2766,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>AKS 로컬 계정 사용 안 함</t>
+          <t>필요한 경우 Just-in-time 클러스터 액세스 구성</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2783,14 +2783,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Just-In-Time 클러스터 액세스 구성</t>
+          <t>AKS에 필요한 경우 AAD 조건부 액세스 구성</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2836,7 +2836,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>AKS에 대한 AAD 조건부 액세스가 필요한 경우 구성</t>
+          <t xml:space="preserve">Windows AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2874,7 +2874,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2882,7 +2882,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2903,13 +2903,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
+          <t>더 세밀하게 제어하려면 관리형 Kubelet ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2920,14 +2920,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2938,17 +2938,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>권장사항</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>보다 세밀한 제어를 위해 관리되는 Kubelet ID를 사용하는 것이 좋습니다.</t>
+          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2965,14 +2965,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요</t>
+          <t>AKS 애플리케이션 라우팅 추가 기능 사용 안 함</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3018,7 +3018,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3039,13 +3039,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>AKS 애플리케이션 라우팅 추가 기능 사용 안 함</t>
+          <t>Windows 워크로드의 경우 가속화된 네트워킹을 사용합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3064,7 +3064,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3085,13 +3085,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Windows 워크로드의 경우 가속화된 네트워킹을 사용합니다.</t>
+          <t>표준 ALB 사용(기본 ALB와 반대)</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3102,7 +3102,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3110,7 +3110,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3131,13 +3131,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>표준 ALB 사용(기본 ALB와 반대)</t>
+          <t>Azure CNI를 사용하는 경우 NodePools에 다른 서브넷을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3148,14 +3148,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>권장사항</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 NodePools에 다른 서브넷을 사용하는 것이 좋습니다</t>
+          <t>프라이빗 엔드포인트(기본 설정) 또는 Virtual Network 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3193,7 +3193,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3201,7 +3201,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>하</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트(기본 설정) 또는 Virtual Network 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
+          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3239,14 +3239,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3262,18 +3262,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>하이브리드 연결이 필요한 경우 가용성 향상을 위해 2xER 또는 ER+VPN을 사용합니다</t>
+          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인 선택(Azure CNI 권장)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3307,12 +3307,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인 선택(Azure CNI 권장)</t>
+          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3329,14 +3329,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다</t>
+          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3381,7 +3381,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3397,18 +3397,22 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="n"/>
+          <t>개인 IP LoadBalancer 서비스를 사용하는 경우 AKS 서브넷이 아닌 전용 서브넷을 사용합니다</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="inlineStr">
+        <is>
+          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
+        </is>
+      </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3419,14 +3423,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3442,22 +3446,18 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>아이팜</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>개인 IP LoadBalancer 서비스를 사용하는 경우 전용 서브넷(AKS 서브넷 아님)을 사용합니다</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리며, 잠재적으로 Pod에 대한 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
-        </is>
-      </c>
+          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성이 제한됨).</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3468,14 +3468,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3491,18 +3491,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성을 제한할 예정임).</t>
+          <t>필요한 경우 자체 CNI 플러그인을 추가합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3513,14 +3513,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 자체 CNI 플러그인을 추가하십시오.</t>
+          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3558,14 +3558,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3581,18 +3581,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에서 노드당 공용 IP를 구성합니다.</t>
+          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스를 사용하여 노출하는 대신 웹 기반 앱을 노출합니다</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3603,7 +3603,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3611,7 +3611,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3632,13 +3632,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스로 노출하는 대신 웹 기반 앱을 노출합니다</t>
+          <t>송신 트래픽 크기 조정을 위해 Azure NAT Gateway를 outboundType으로 사용</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3678,13 +3678,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>송신 트래픽 크기 조정을 위해 Azure NAT Gateway를 outboundType으로 사용</t>
+          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,7 +3695,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3719,18 +3719,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI IP 고갈을 방지하기 위해 IP의 동적 할당을 사용합니다</t>
+          <t>보안 요구 사항에 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3741,14 +3741,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3769,13 +3769,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>보안 요구 사항에서 요구하는 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링Filter egress traffic with AzFW/NVA if your security requirements required it</t>
+          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3794,7 +3794,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다</t>
+          <t>요구 사항에 따라 개인 클러스터를 사용합니다</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3832,7 +3832,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3840,7 +3840,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3861,13 +3861,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>요구 사항에 따라 필요한 경우 프라이빗 클러스터 사용Use private clusters if your requirements required it</t>
+          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 Calico 네트워크 정책을 사용할 수 있습니다. </t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3878,7 +3878,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -3886,7 +3886,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3907,13 +3907,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 Calico 네트워크 정책을 사용할 수 있습니다. </t>
+          <t>Kubernetes 네트워크 정책 옵션 사용(Calico/Azure)</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes 네트워크 정책 옵션 사용(Calico/Azure)</t>
+          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3970,7 +3970,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3978,7 +3978,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
+          <t>웹 워크로드(UI 또는 API)에 WAF 사용Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4024,7 +4024,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4045,13 +4045,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>웹 워크로드(UI 또는 API)에 WAF 사용Use a WAF for web workloads (UI or APIs)</t>
+          <t>AKS Virtual Network에서 DDoS 표준 사용Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4070,7 +4070,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>AKS 가상 네트워크에서 DDoS 표준 사용Use DDoS Standard in the AKS Virtual Network</t>
+          <t>필요한 경우 회사 HTTP 프록시를 추가합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4137,13 +4137,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 회사 HTTP 프록시를 추가합니다.</t>
+          <t>고급 마이크로서비스 통신 관리를 위해 서비스 메시를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4162,7 +4162,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4173,23 +4173,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>경고</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>고급 마이크로 서비스 통신 관리를 위해 서비스 메시를 사용하는 것이 좋습니다</t>
+          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 Container Insights 참조)</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4200,7 +4200,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4208,7 +4208,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>경고</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 Container Insights 참조)</t>
+          <t>Azure Advisor에서 클러스터에 대한 권장 사항을 정기적으로 확인합니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4254,7 +4254,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure Advisor에서 클러스터에 대한 권장 사항을 정기적으로 확인합니다.</t>
+          <t>AKS 자동 인증서 회전 사용</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4292,7 +4292,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4300,7 +4300,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>vscode+kubeadvisor와 같은 지능형 텍스트 편집기로 YAML 매니페스트를 개발합니다.</t>
+          <t>kubernetes 버전을 주기적으로(예: 분기별) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4346,7 +4346,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4367,13 +4367,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>AKS 자동 인증서 회전 사용Enable AKS auto-certificate rotation</t>
+          <t>node-image upgrade를 사용하지 않는 경우 Linux 노드 업그레이드에 kured를 사용합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
+          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>kubernetes 버전을 주기적으로(예: 분기별) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다</t>
+          <t>클러스터 노드 이미지를 주기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4438,7 +4438,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>노드 이미지 업그레이드를 사용하지 않는 경우 Linux 노드 업그레이드에 kured를 사용합니다</t>
+          <t>gitops를 고려하여 애플리케이션 또는 클러스터 구성을 여러 클러스터에 배포합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4476,7 +4476,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4484,7 +4484,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>클러스터 노드 이미지를 주기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있어야 합니다</t>
+          <t>프라이빗 클러스터에서 AKS 명령 호출을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4530,7 +4530,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>gitops를 고려하여 애플리케이션 또는 클러스터 구성을 여러 클러스터에 배포합니다.</t>
+          <t>계획된 이벤트의 경우 노드 자동 드레인 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4568,7 +4568,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4576,7 +4576,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 클러스터에서 AKS 명령 호출을 사용하는 것이 좋습니다.</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경을 수행하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://learn.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4622,7 +4622,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>계획된 이벤트의 경우 노드 자동 드레이닝을 사용하는 것이 좋습니다.</t>
+          <t>사용자 정의 노드 RG (일명 '인프라 RG') 이름 사용</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4660,7 +4660,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4689,13 +4689,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경을 수행하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
+          <t>YAML 매니페스트에서 더 이상 사용되지 않는 Kubernetes API를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4706,7 +4706,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/faq</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4714,7 +4714,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>사용자 지정 노드 RG(일명 '인프라 RG') 이름 사용</t>
+          <t>테인트 Windows 노드</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4752,7 +4752,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4760,7 +4760,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>YAML 매니페스트에서 더 이상 사용되지 않는 Kubernetes API를 사용하지 마십시오</t>
+          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -4806,7 +4806,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4827,10 +4827,14 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Windows 노드 오염</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="n"/>
+          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보내기</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>클러스터 수준의 진단 설정을 통해Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -4844,7 +4848,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4852,7 +4856,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지Keep windows containers patch level in sync with host patch level</t>
+          <t>필요한 경우 nodePool 스냅샷을 사용합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4890,7 +4894,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -4898,7 +4902,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4914,19 +4918,15 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 선호하는 로그 관리 솔루션으로 보내기</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>클러스터 수준에서 진단 설정을 통해Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -4940,7 +4940,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -4948,7 +4948,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
+          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -4986,7 +4986,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -4994,7 +4994,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5010,18 +5010,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
+          <t>Container Insights(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 지표 모니터링</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5032,7 +5032,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5040,7 +5040,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Container Insights(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 지표 모니터링</t>
+          <t>Container Insights(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5086,7 +5086,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Container Insights(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그 저장 및 분석</t>
+          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
+          <t>Azure CNI를 사용하는 경우 노드당 사용되는 Pod IP의 %를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5178,7 +5178,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5199,10 +5199,14 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 사용되는 Pod IP의 %를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="n"/>
+          <t>노드에서 OS 디스크 큐 크기 모니터링Monitor OS disk queue depth in nodes</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예측할 수 없는 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언됩니다</t>
+        </is>
+      </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5216,7 +5220,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5224,7 +5228,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5245,14 +5249,10 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>노드의 OS 디스크 큐 깊이 모니터링</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되는 경우 예측할 수 없는 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언됩니다</t>
-        </is>
-      </c>
+          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5266,7 +5266,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다.</t>
+          <t>AKS 클러스터에 대한 Resource Health 알림 구독Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5320,7 +5320,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>리소스</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>AKS 클러스터에 대한 리소스 상태 알림 구독Subscribe to resource health notifications for your AKS cluster</t>
+          <t>Pod 규격에서 요청 및 제한 구성</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5387,13 +5387,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Pod 사양에서 요청 및 제한 구성</t>
+          <t>네임스페이스에 대한 리소스 할당량 적용Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5433,13 +5433,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>네임스페이스에 대한 리소스 할당량 적용Enforce resource quotas for namespaces</t>
+          <t>구독에 노드 풀을 확장할 수 있는 충분한 할당량이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5450,7 +5450,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>리소스</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>구독에 노드 풀을 스케일 아웃하기에 충분한 할당량이 있는지 확인합니다.</t>
+          <t>Cluster Autoscaler 사용</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5496,7 +5496,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5504,7 +5504,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5525,13 +5525,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>클러스터 자동 크기 조정기 사용</t>
+          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5542,7 +5542,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5550,7 +5550,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5571,13 +5571,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
+          <t>필요한 경우 Horizontal Pod Autoscaler 사용</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5596,7 +5596,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5617,13 +5617,17 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Horizontal Pod Autoscaler 사용</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="n"/>
+          <t>너무 크거나 너무 작지 않은 적절한 노드 크기를 고려합니다</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>노드가 클수록 임시 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다</t>
+        </is>
+      </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5634,7 +5638,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5642,7 +5646,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5663,17 +5667,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>너무 크거나 작지 않은 적절한 노드 크기를 고려합니다</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>더 큰 노드는 더 높은 성능과 임시 디스크 및 가속화된 네트워킹과 같은 기능을 제공하지만 폭발 반경을 늘리고 크기 조정 세분성을 감소시킵니다</t>
-        </is>
-      </c>
+          <t>확장성을 위해 5,000개 이상의 노드가 필요한 경우 추가 AKS 클러스터를 사용하는 것이 좋습니다</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5692,7 +5692,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>확장성을 위해 5,000개 이상의 노드가 필요한 경우 추가 AKS 클러스터를 사용하는 것이 좋습니다</t>
+          <t>AKS 자동화를 위해 EventGrid 이벤트를 구독하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5730,7 +5730,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5738,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>AKS 자동화를 위한 EventGrid 이벤트를 구독하는 것이 좋습니다.</t>
+          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5776,7 +5776,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -5784,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
+          <t>필요한 경우 AKS 노드에 Azure Dedicated Host를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5822,14 +5822,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5845,18 +5845,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 노드에 Azure Dedicated Host를 사용하는 것이 좋습니다.</t>
+          <t>임시 OS 디스크 사용</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5867,7 +5867,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -5875,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>임시 OS 디스크 사용</t>
+          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대규모 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 높은 IOPS 및 더 큰 OS 디스크를 사용합니다</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5913,7 +5913,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -5942,13 +5942,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대규모 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 높은 IOPS 및 더 큰 OS 디스크를 사용합니다</t>
+          <t>고성능 스토리지 옵션의 경우 AKS에서 Ultra Disks를 사용합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5959,7 +5959,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -5988,13 +5988,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>하이퍼 성능 스토리지 옵션의 경우 AKS에서 Ultra Disks를 사용합니다.</t>
+          <t>클러스터에서 상태를 유지하지 않고 외부(AzStorage, AzSQL, Cosmos 등)에 데이터를 저장합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6005,14 +6005,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>클러스터에서 상태를 유지하지 말고 외부(AzStorage, AzSQL, Cosmos 등)에 데이터를 저장합니다.</t>
+          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles 프리미엄 및/또는 ANF를 고려합니다</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6050,14 +6050,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>AzFiles Standard를 사용하는 경우 성능상의 이유로 AzFiles Premium 및/또는 ANF를 사용하는 것이 좋습니다</t>
+          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 VolumeBindingMode::WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6095,14 +6095,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6111,46 +6111,17 @@
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 VolumeBindingMode:WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 포함하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
@@ -9042,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F118" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9214,7 +9185,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9224,7 +9195,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9236,7 +9207,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ko.xlsx
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>앱 분리 요구 사항 정의(namespace/nodepool/cluster)</t>
+          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>POD ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
+          <t>Pod ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보내기</t>
+          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보냅니다</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ko.xlsx
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AKS 애플리케이션 라우팅 추가 기능 사용 안 함</t>
+          <t>AKS HTTP 라우팅 추가 기능을 사용하지 말고, 애플리케이션 라우팅 추가 기능과 함께 관리되는 NGINX 수신을 대신 사용합니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
